--- a/experiments/src/linear_regression_experiment_average_error_mean.xlsx
+++ b/experiments/src/linear_regression_experiment_average_error_mean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb P. Nwokocha\OneDrive - University of Manitoba\Documents\personal_projects\my_ai\research_doc\comprehensive_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AABC28D9-2486-41B1-B3BE-C238FD09F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35942B4D-2B57-41EA-8FF6-80B1F9A87117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71EF1C53-C8D4-448B-B5E0-ED85EA216556}"/>
   </bookViews>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>TRAINING ERROR MEAN (TrainEM)</t>
-  </si>
-  <si>
-    <t>TRAINING ERROR MEAN (TestEM)</t>
   </si>
   <si>
     <t>Task 1 TrainEM</t>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Test #</t>
+  </si>
+  <si>
+    <t>TESTING ERROR MEAN (TestEM)</t>
   </si>
 </sst>
 </file>
@@ -354,15 +354,26 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Example</a:t>
+                  <a:t>Number</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" baseline="0">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> #</a:t>
+                  <a:t> of </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>examples</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" baseline="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -834,14 +845,14 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Test</a:t>
+                  <a:t>Number of test</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" baseline="0">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> #</a:t>
+                  <a:t>s</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2280,10 +2291,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2583,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6CFD06-D47F-40AD-AFC7-2DEFA82E3882}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,34 +2620,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2933,7 +2940,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2947,37 +2954,37 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>18</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>19</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3712,21 +3719,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CB5EA458A0058B4CAA35AEFF21016FDA" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="914a85b1481f1dcf205900f495f4c990">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2a27098-a80a-4073-8b19-8a7b332ebe99" xmlns:ns4="fad29e59-21b3-420a-a166-9fd37d365e2a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1f12b3310042c84f5cc90f6d8898f62" ns3:_="" ns4:_="">
     <xsd:import namespace="e2a27098-a80a-4073-8b19-8a7b332ebe99"/>
@@ -3955,32 +3947,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54FCF164-4ACC-479F-A239-2207C05EF279}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fad29e59-21b3-420a-a166-9fd37d365e2a"/>
-    <ds:schemaRef ds:uri="e2a27098-a80a-4073-8b19-8a7b332ebe99"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5A5053-B726-4A48-B131-6B3146A78DBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC2A00A-2D73-41F5-AA6C-637457E5E3D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3997,4 +3979,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5A5053-B726-4A48-B131-6B3146A78DBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54FCF164-4ACC-479F-A239-2207C05EF279}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fad29e59-21b3-420a-a166-9fd37d365e2a"/>
+    <ds:schemaRef ds:uri="e2a27098-a80a-4073-8b19-8a7b332ebe99"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/experiments/src/linear_regression_experiment_average_error_mean.xlsx
+++ b/experiments/src/linear_regression_experiment_average_error_mean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb P. Nwokocha\OneDrive - University of Manitoba\Documents\personal_projects\my_ai\research_doc\comprehensive_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35942B4D-2B57-41EA-8FF6-80B1F9A87117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2C7B69-834F-402F-8567-534F08547886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71EF1C53-C8D4-448B-B5E0-ED85EA216556}"/>
   </bookViews>
@@ -502,7 +502,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> error-men</a:t>
+                  <a:t> error-mean</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -982,7 +982,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> error-men</a:t>
+                  <a:t> error-mean</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2590,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6CFD06-D47F-40AD-AFC7-2DEFA82E3882}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,6 +3719,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CB5EA458A0058B4CAA35AEFF21016FDA" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="914a85b1481f1dcf205900f495f4c990">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2a27098-a80a-4073-8b19-8a7b332ebe99" xmlns:ns4="fad29e59-21b3-420a-a166-9fd37d365e2a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1f12b3310042c84f5cc90f6d8898f62" ns3:_="" ns4:_="">
     <xsd:import namespace="e2a27098-a80a-4073-8b19-8a7b332ebe99"/>
@@ -3947,15 +3956,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3963,6 +3963,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5A5053-B726-4A48-B131-6B3146A78DBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC2A00A-2D73-41F5-AA6C-637457E5E3D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3977,14 +3985,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5A5053-B726-4A48-B131-6B3146A78DBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/experiments/src/linear_regression_experiment_average_error_mean.xlsx
+++ b/experiments/src/linear_regression_experiment_average_error_mean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb P. Nwokocha\OneDrive - University of Manitoba\Documents\personal_projects\my_ai\research_doc\comprehensive_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2C7B69-834F-402F-8567-534F08547886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44ACC30-04EE-41B6-98A9-1E545893C29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71EF1C53-C8D4-448B-B5E0-ED85EA216556}"/>
   </bookViews>
@@ -2590,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6CFD06-D47F-40AD-AFC7-2DEFA82E3882}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
